--- a/biology/Zoologie/Galerucella_emarginata/Galerucella_emarginata.xlsx
+++ b/biology/Zoologie/Galerucella_emarginata/Galerucella_emarginata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Galerucella emarginata est une espèce fossile d'insecte coléoptère de la famille des Chrysomelidae, sous-famille des Galerucinae, tribu des Galerucini et du genre Galerucella.
 </t>
@@ -511,13 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Galerucella emarginata est décrite en 1937 par le paléontologue français Théobald (1903-1981)[1],[2]. 
-Fossile
-L'holotype R776 de l'ère Cénozoïque, et de l'époque Oligocène et de l'âge Rupélien (33,9 à 28,1 Ma), vient de la collection Mieg, collection conservée au Musée d'histoire naturelle de Bâle[3]. Ce spécimen provient du gisement de Kleinkembs (ou Kleinkems) oligocène, dans le Bade-Wurtemberg, sur la rive droite du Rhin[3].
-Étymologie
-L'épithète spécifique emarginata signifie « banni » ou « amer » en latin.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Galerucella emarginata est décrite en 1937 par le paléontologue français Théobald (1903-1981),. 
 </t>
         </is>
       </c>
@@ -543,18 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-Diagnose de Nicolas Théobald en 1937[1],[note 1] : 
-« Empreinte de la face dorsale, représentant le moule externe de l'animal. Coloration jaunâtre, ne représentant certainement pas la couleur primitive. Deux élytres sont bien conservées ; forme allongée, bords à peu près parallèles jusqu'au quart externe, puis s'arrondit en une pointe mousse. Sur le vivant, les élytres n'ont pas dû bailler à l'extrémité, mais être accolés jusqu'au sommet. Épipleure étroite ; surface fortement bombée, ornée de points enfoncés, serrés, donnant à l'élytre un aspect chagriné ; écusson très petit ; épaules effacées. Les élytres ont dû dépasser le thorax, dont il ne reste qu'une vague empreinte. »[1].
-Dimensions
-L'élytre a une longueur de 4 mm et une largeur de 1,4 mm[1].
-Affinités
-« Bruno Förster a décrit des marnes en plaquettes de Brunnstatt un exemplaire de Galerucella affinis dont les élytres présentent des caractères d'ornementation semblables à notre échantillon, mais leur forme est ovoïde, ils sont plus étroits à l'avant qu'à l'arrière et baillent à leurs extrémités. Leur taille (2,5 mm.) est beaucoup plus petite. Il est donc fort probable que les deux formes soient distinctes. »[1].
+          <t>Fossile</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype R776 de l'ère Cénozoïque, et de l'époque Oligocène et de l'âge Rupélien (33,9 à 28,1 Ma), vient de la collection Mieg, collection conservée au Musée d'histoire naturelle de Bâle. Ce spécimen provient du gisement de Kleinkembs (ou Kleinkems) oligocène, dans le Bade-Wurtemberg, sur la rive droite du Rhin.
 </t>
         </is>
       </c>
@@ -580,13 +590,165 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique emarginata signifie « banni » ou « amer » en latin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Galerucella_emarginata</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerucella_emarginata</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diagnose de Nicolas Théobald en 1937,[note 1] : 
+« Empreinte de la face dorsale, représentant le moule externe de l'animal. Coloration jaunâtre, ne représentant certainement pas la couleur primitive. Deux élytres sont bien conservées ; forme allongée, bords à peu près parallèles jusqu'au quart externe, puis s'arrondit en une pointe mousse. Sur le vivant, les élytres n'ont pas dû bailler à l'extrémité, mais être accolés jusqu'au sommet. Épipleure étroite ; surface fortement bombée, ornée de points enfoncés, serrés, donnant à l'élytre un aspect chagriné ; écusson très petit ; épaules effacées. Les élytres ont dû dépasser le thorax, dont il ne reste qu'une vague empreinte. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Galerucella_emarginata</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerucella_emarginata</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'élytre a une longueur de 4 mm et une largeur de 1,4 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Galerucella_emarginata</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerucella_emarginata</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« Bruno Förster a décrit des marnes en plaquettes de Brunnstatt un exemplaire de Galerucella affinis dont les élytres présentent des caractères d'ornementation semblables à notre échantillon, mais leur forme est ovoïde, ils sont plus étroits à l'avant qu'à l'arrière et baillent à leurs extrémités. Leur taille (2,5 mm.) est beaucoup plus petite. Il est donc fort probable que les deux formes soient distinctes. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Galerucella_emarginata</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerucella_emarginata</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« Le g. Galerucella est universellement répandu, les insectes vivent sur les plantes et les buissons. »[1].
+« Le g. Galerucella est universellement répandu, les insectes vivent sur les plantes et les buissons. ».
 </t>
         </is>
       </c>
